--- a/Assets/StreamingAssets/Levels.xlsx
+++ b/Assets/StreamingAssets/Levels.xlsx
@@ -17,51 +17,39 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>關卡等級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家攻擊力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>大招傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敵人數量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敵人血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Boss血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敵人傷害</t>
+  </si>
+  <si>
+    <t>Boss傷害</t>
   </si>
   <si>
     <t>敵人分數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Boss分數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>獎勵分數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敵人傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boss傷害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -410,163 +398,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="G2">
+      <c r="C4">
         <v>150</v>
-      </c>
-      <c r="H2">
-        <v>15</v>
-      </c>
-      <c r="I2">
-        <v>30</v>
-      </c>
-      <c r="J2">
-        <v>20</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>400</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3">
-        <v>30</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="K3">
-        <v>1000</v>
-      </c>
-      <c r="L3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>80</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>700</v>
-      </c>
-      <c r="H4">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>30</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="K4">
+      <c r="B11">
         <v>1000</v>
       </c>
-      <c r="L4">
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <v>3000</v>
+      </c>
+      <c r="D12">
         <v>8000</v>
       </c>
     </row>
